--- a/data/Lipocalin 2 regulates mitochondrial phospholipidome remodeling, dynamics, and function in brown adipose tissue in male mice/Lipocalin 2 fig 3.xlsx
+++ b/data/Lipocalin 2 regulates mitochondrial phospholipidome remodeling, dynamics, and function in brown adipose tissue in male mice/Lipocalin 2 fig 3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,95 +365,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>genotype</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_d</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_e</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_f</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_g</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_h</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_i</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_j</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_k</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_l</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_m</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_n</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_o</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_p</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_q</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_r</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_s</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_t</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>cardiolipin_u</t>
         </is>
@@ -468,58 +478,68 @@
           <t>WT-Saline</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E2">
         <v>0.08</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>1.47</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.31</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>6.92</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.11</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0.08152191312702987</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.9756556628615493</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>0.01259989643261924</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.8845366171229823</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>3.209723223395939</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>21.8</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>13.85</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>0.98</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.2292730380806688</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>0.77</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.04385468630330785</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>0.2027281251450644</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0.5462836190376625</v>
       </c>
     </row>
@@ -532,58 +552,68 @@
           <t>WT-Saline</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E3">
         <v>0.05</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.82</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.24</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>4.59</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.03140057028931666</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.7970252279399521</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.02351805432672188</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.7052579922584363</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2.565091853853859</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>26.17</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>14.07</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>0.93</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.2477115299669424</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>0.8</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.05790893398551258</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>0.2720091948637056</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.7026206568226435</v>
       </c>
     </row>
@@ -596,58 +626,68 @@
           <t>WT-Saline</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E4">
         <v>0.04</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.19</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.33</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>5.81</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.09</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.1255749068818941</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.730847675903995</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.0317030712467679</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>1.534671539846876</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>4.480922324843231</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>19.98</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>13.18</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.86</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.2230822550361074</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>0.6899999999999999</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.0667653998098868</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>0.2378782768634521</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.5990589945738187</v>
       </c>
     </row>
@@ -660,58 +700,68 @@
           <t>WT-Saline</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E5">
         <v>0.08</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1.58</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.42</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>6.99</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.11</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.08185667753959124</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.099592250676695</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.03220937511788336</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>1.020528087283346</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>3.462636570806179</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>20.84</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>12.93</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1.01</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.2723027620421722</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.76</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.03693585665383153</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.1654849381409117</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.5322403748377534</v>
       </c>
     </row>
@@ -724,58 +774,68 @@
           <t>WT-CL</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E6">
         <v>0.05</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.22</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>4.02</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.08</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.06703873359257595</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.9046124631870022</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.02032248153588028</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.9832450019615165</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>2.640119310143173</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>29.04</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>15.57</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1.17</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.3198627655895068</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>0.97</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.127652517802537</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.5489139391562117</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>1.186602282392866</v>
       </c>
     </row>
@@ -788,58 +848,68 @@
           <t>WT-CL</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E7">
         <v>0.03</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.68</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.21</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>3.91</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.08</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.04081230450614752</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.8459729986261442</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.0231090172902316</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.9109572790585877</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2.403379712691039</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>27.7</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>14.97</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>1.15</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.3116186921510175</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.92</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.09412428121152353</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.4426934304042114</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>1.047588589833861</v>
       </c>
     </row>
@@ -852,58 +922,68 @@
           <t>WT-CL</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E8">
         <v>0.02</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.54</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.19</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>3.46</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.08</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.04341849496499762</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.9720418483473074</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.02530756521752587</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>1.188041220982912</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>2.784207688895306</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>27.79</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>15.22</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>1.14</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.3745479707131493</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.99</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.1413940863609839</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.5657536563008031</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>1.169269552633557</v>
       </c>
     </row>
@@ -916,58 +996,68 @@
           <t>WT-CL</t>
         </is>
       </c>
-      <c r="C9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E9">
         <v>0.02</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.54</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.21</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>3.66</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.08</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.04681677702337858</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.183434578669633</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.04210967791080845</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>1.473384266270832</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>3.50798635886609</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>33.51</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>18.13</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>1.18</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.3174834592132024</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>1.07</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.2106675971338318</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>0.7743423366049123</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>1.53494148906775</v>
       </c>
     </row>
@@ -980,58 +1070,68 @@
           <t>WT-CL</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E10">
         <v>0.03</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.49</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.18</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>3.3</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.0488997152642195</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.9994608025861196</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.04390619993226123</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>1.142749543756855</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>2.835661747329856</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>27.45</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>14.86</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>1.04</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.2552718012169798</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>0.92</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>0.1262291523425467</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>0.5661854132516163</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1.158267972425112</v>
       </c>
     </row>
@@ -1044,58 +1144,68 @@
           <t>KO-Saline</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E11">
         <v>0.03</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.72</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.25</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>4.16</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.08376131293121471</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.329740878243051</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.03529359210126014</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>1.147478072553609</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>3.707903421076209</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>23.21</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>13.36</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.9</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.2414251014537719</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.84</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.0582927068219497</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.2658997092940846</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.7046074516072671</v>
       </c>
     </row>
@@ -1108,58 +1218,68 @@
           <t>KO-Saline</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E12">
         <v>0.05</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.68</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.28</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>4.09</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.08</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.1024234304174311</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>1.488517420312054</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.05279950062943101</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>1.433853393559238</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>4.552153592099816</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>26.67</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>16.13</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>1.04</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.3143778084521991</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>0.93</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.08887316536660463</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>0.3696057801582516</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.883312595498511</v>
       </c>
     </row>
@@ -1172,58 +1292,68 @@
           <t>KO-Saline</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E13">
         <v>0.03</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.6899999999999999</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.28</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>3.97</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.08</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.1031376509530611</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>1.453865991171588</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.03030277168283603</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>1.281753468529652</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>4.223760191614323</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>24.91</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>14.35</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.9399999999999999</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.2780998007172362</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.83</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.07753368814422791</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0.3030805804339751</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.787009166882211</v>
       </c>
     </row>
@@ -1236,58 +1366,68 @@
           <t>KO-Saline</t>
         </is>
       </c>
-      <c r="C14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Saline</t>
+        </is>
+      </c>
+      <c r="E14">
         <v>0.05</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.84</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.27</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>4.91</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.08</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>0.1079386518821355</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>1.528336294985063</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.03571898077627271</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>1.434748706819502</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>4.480950446132014</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>28.19</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>16.73</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>1.15</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.2569705971874088</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>1.05</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>0.07945479141356522</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>0.3235952873729461</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.8222890100686355</v>
       </c>
     </row>
@@ -1300,58 +1440,68 @@
           <t>KO-CL</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E15">
         <v>0.03</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.75</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.2</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>3.44</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>0.0318699826789947</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.8800114963081722</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.02241123906950543</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.9618779443198094</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>2.46083645911451</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>25.6</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>16.52</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1.16</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0.3413039873341077</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>0.8100000000000001</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>0.1054091536132963</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>0.4977733653756104</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>1.17737335107287</v>
       </c>
     </row>
@@ -1364,58 +1514,68 @@
           <t>KO-CL</t>
         </is>
       </c>
-      <c r="C16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E16">
         <v>0.04</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>0.97</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.24</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>4.58</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>0.04758774348082484</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.8093755659785931</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.01611336069457796</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.912996956128808</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>2.453454221203808</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>31.54</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>15.96</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>1.12</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.2651465114385863</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>0.1279489007863229</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>0.5227361115846207</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1.156137634578778</v>
       </c>
     </row>
@@ -1428,58 +1588,68 @@
           <t>KO-CL</t>
         </is>
       </c>
-      <c r="C17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E17">
         <v>0.05</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>0.6</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.29</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>5.51</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>0.1</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.03556771128851745</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.6700365814665402</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.01801647145799818</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.868670990449711</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>2.473077571672009</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>31.62</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>16.91</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>1.31</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>0.3299626693421353</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>0.1212229067957255</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>0.5707888570022549</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>1.267150510807198</v>
       </c>
     </row>
@@ -1492,58 +1662,68 @@
           <t>KO-CL</t>
         </is>
       </c>
-      <c r="C18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E18">
         <v>0.03</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>0.68</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.22</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>3.93</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>0.08</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>0.06875775885053104</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>1.106206501143907</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.03263988855900105</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>1.356111698303463</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>3.403721046676149</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>32.24</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>17.66</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.25</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>0.3234605933082542</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1.01</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0.1692627049170529</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>0.7040099992907413</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1.469053517453597</v>
       </c>
     </row>
@@ -1556,55 +1736,65 @@
           <t>KO-CL</t>
         </is>
       </c>
-      <c r="C19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="E19">
         <v>0.03</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.23</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>4.19</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>0.02842900695095804</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.870878926547056</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.02692291962584658</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.9789290572662825</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2.820977553014871</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>27.71</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>14.32</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.99</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0.2362475296124108</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.88</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <v>0.1025548901162127</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>0.4576073956532878</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1.037626465867644</v>
       </c>
     </row>
